--- a/data/trans_dic/P1423-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07214397622427396</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09442390561636764</v>
+        <v>0.09442390561636765</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01455108447425685</v>
+        <v>0.01389302539099189</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02449495791475553</v>
+        <v>0.02458811264670333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01638657399830962</v>
+        <v>0.01637927233783392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05880580718286315</v>
+        <v>0.05803930198412698</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04847296247634125</v>
+        <v>0.04891092956058803</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1039786441912699</v>
+        <v>0.1065888335640834</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09215010769068219</v>
+        <v>0.09487952467909393</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09493114116838115</v>
+        <v>0.09499691606447672</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03481996956269019</v>
+        <v>0.03367868755288588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06980001828507433</v>
+        <v>0.06931578703466522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05845639314332741</v>
+        <v>0.06017890601309011</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0810788526645095</v>
+        <v>0.08163048239468776</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03706658114310705</v>
+        <v>0.03605931079622308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05222021014024109</v>
+        <v>0.05186714884998068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0434249289816752</v>
+        <v>0.04239838439393436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09787639324317567</v>
+        <v>0.09878319802820607</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08785324011315994</v>
+        <v>0.08569448721447936</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1579001679533006</v>
+        <v>0.1586325874590732</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1438386239740357</v>
+        <v>0.1475488393475448</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1305291254511814</v>
+        <v>0.1304192065344454</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05556391210999816</v>
+        <v>0.05564252939344919</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09763291161010403</v>
+        <v>0.09898857037133235</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08850903672434932</v>
+        <v>0.08776930131821284</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1088321299861247</v>
+        <v>0.1085187856886633</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0565489107235457</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07998592635550729</v>
+        <v>0.07998592635550726</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01970554208596285</v>
+        <v>0.01880122048096567</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03464954602112059</v>
+        <v>0.03397254959109055</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01458213226357146</v>
+        <v>0.01383345699215559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03412797200828242</v>
+        <v>0.03400052614900682</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06129070344777818</v>
+        <v>0.06148677619016212</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09429883803517773</v>
+        <v>0.09332306216550658</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07288412841153734</v>
+        <v>0.0741634670461038</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09726084506948464</v>
+        <v>0.09789464560374357</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04358707733079242</v>
+        <v>0.04298222914681223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06873889441850588</v>
+        <v>0.06949106124529909</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04699681755988282</v>
+        <v>0.04694161097545882</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0703050896287824</v>
+        <v>0.06988043137454504</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04298874482767509</v>
+        <v>0.04137474086116517</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06327385471998012</v>
+        <v>0.06296441797789368</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03273636092359819</v>
+        <v>0.03184627484116148</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06122246821196127</v>
+        <v>0.0606128263927949</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09693457502271205</v>
+        <v>0.09706417656157294</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1363338806179084</v>
+        <v>0.1338782237900413</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1114847951992017</v>
+        <v>0.1124047132190261</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1303985791675884</v>
+        <v>0.129784411482803</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06422623053395847</v>
+        <v>0.06566415037361432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09416053441488108</v>
+        <v>0.09470808001046928</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06735079199190662</v>
+        <v>0.06724759670619412</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0904000272752678</v>
+        <v>0.09161598787440491</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03654314687895339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05587586586706599</v>
+        <v>0.05587586586706598</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07914050101180616</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02364979706982978</v>
+        <v>0.02281880762953344</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02014548370308249</v>
+        <v>0.01967813159282515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02498325328384902</v>
+        <v>0.02456164974742558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0401064755762155</v>
+        <v>0.04119789742281628</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06038680844157224</v>
+        <v>0.0612931262242814</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08086646686201501</v>
+        <v>0.07984507019922903</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07334669949171381</v>
+        <v>0.07368920505364356</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1147766621630186</v>
+        <v>0.1154673172411084</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04625956613536968</v>
+        <v>0.04610482030746501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05385192732112481</v>
+        <v>0.05412238840906324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05188972986951929</v>
+        <v>0.05291807223595639</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08313375458400427</v>
+        <v>0.0818714224847821</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05101916404431845</v>
+        <v>0.050038037424335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05069261402432717</v>
+        <v>0.05110608889201162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05240323634237129</v>
+        <v>0.05311730693435696</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07491202518754173</v>
+        <v>0.07841688278589101</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1013509309168169</v>
+        <v>0.1019174846950125</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1246207911901364</v>
+        <v>0.1260500035240576</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1164411457834096</v>
+        <v>0.1155226394517377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1625484934475434</v>
+        <v>0.1599839819475857</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07071232364790966</v>
+        <v>0.06961497048709901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08029678161803856</v>
+        <v>0.08183520474523172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07832965662578797</v>
+        <v>0.07836170876014296</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1115071513199445</v>
+        <v>0.1116196756531626</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0249617103416507</v>
+        <v>0.0249625796124857</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03429395102253421</v>
+        <v>0.03372352312977893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03227252477308603</v>
+        <v>0.03303656296452155</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05468123582414389</v>
+        <v>0.05389230832442361</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06497271668055306</v>
+        <v>0.06274774669964642</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09455408379405102</v>
+        <v>0.09555566340757717</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09245459043462474</v>
+        <v>0.09125523856636833</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1108760692810418</v>
+        <v>0.109798647170791</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04808128360412677</v>
+        <v>0.04869872398112006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07057595614749014</v>
+        <v>0.06972898909044746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06719845284003167</v>
+        <v>0.06710031413781699</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08767515868160905</v>
+        <v>0.08848576826032399</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05090648593956885</v>
+        <v>0.04804156003054108</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06314779278891668</v>
+        <v>0.06293395841206129</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05930755951639749</v>
+        <v>0.06194173439831976</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08705400180341638</v>
+        <v>0.08595957807571547</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0972139761199572</v>
+        <v>0.09713242843107907</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1350763371664916</v>
+        <v>0.1350086870950596</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1343052202130118</v>
+        <v>0.132145211301974</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1437563115638735</v>
+        <v>0.1463548896515484</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06936404024957446</v>
+        <v>0.06883302948842515</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09611473019893893</v>
+        <v>0.09514025383592985</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09389207119139556</v>
+        <v>0.09304152412944458</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.111351843957285</v>
+        <v>0.1125745427963608</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03498303961878504</v>
+        <v>0.0349425746676977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02735774216036677</v>
+        <v>0.02671871535208471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05274862338834924</v>
+        <v>0.05284156113167961</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1038388704560248</v>
+        <v>0.1032210723958697</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09236435696909912</v>
+        <v>0.09235842159472096</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1131735126699529</v>
+        <v>0.1128193419395744</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07208381372805435</v>
+        <v>0.07205781917207388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06186985075601258</v>
+        <v>0.06161498336982358</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08626347430456352</v>
+        <v>0.08585809493221654</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04967038407956309</v>
+        <v>0.05011630025005198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03899747741607205</v>
+        <v>0.03905860353258332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06945010460675888</v>
+        <v>0.06978388707708502</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1256947527940435</v>
+        <v>0.1250849597637257</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1132006890924918</v>
+        <v>0.1143308499696666</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1310463898084182</v>
+        <v>0.132085015254281</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0850656742327586</v>
+        <v>0.08532344135043349</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07434786254695809</v>
+        <v>0.07442686018912092</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09881609770852656</v>
+        <v>0.09845189202698827</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10099</v>
+        <v>9642</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17231</v>
+        <v>17297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11058</v>
+        <v>11053</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40618</v>
+        <v>40088</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33366</v>
+        <v>33668</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>72478</v>
+        <v>74298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>62002</v>
+        <v>63839</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69697</v>
+        <v>69745</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>48134</v>
+        <v>46556</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>97756</v>
+        <v>97078</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>78778</v>
+        <v>81099</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>115528</v>
+        <v>116314</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25725</v>
+        <v>25026</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36735</v>
+        <v>36487</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29303</v>
+        <v>28610</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67604</v>
+        <v>68231</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60474</v>
+        <v>58988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>110064</v>
+        <v>110575</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>96780</v>
+        <v>99277</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95832</v>
+        <v>95751</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>76809</v>
+        <v>76918</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>136737</v>
+        <v>138635</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>119278</v>
+        <v>118281</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>155074</v>
+        <v>154627</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18953</v>
+        <v>18083</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35271</v>
+        <v>34582</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14909</v>
+        <v>14144</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35797</v>
+        <v>35664</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59353</v>
+        <v>59543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>97031</v>
+        <v>96027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>76012</v>
+        <v>77346</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>104212</v>
+        <v>104892</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>84131</v>
+        <v>82964</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>140703</v>
+        <v>142243</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>97065</v>
+        <v>96951</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>149074</v>
+        <v>148174</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41347</v>
+        <v>39794</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64409</v>
+        <v>64094</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33471</v>
+        <v>32561</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>64217</v>
+        <v>63578</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93871</v>
+        <v>93996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>140284</v>
+        <v>137757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>116269</v>
+        <v>117228</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>139719</v>
+        <v>139061</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>123969</v>
+        <v>126744</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>192739</v>
+        <v>193860</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>139103</v>
+        <v>138889</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>191683</v>
+        <v>194262</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16047</v>
+        <v>15483</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15263</v>
+        <v>14909</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18976</v>
+        <v>18656</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32208</v>
+        <v>33085</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>41295</v>
+        <v>41915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62847</v>
+        <v>62054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>57578</v>
+        <v>57847</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>93228</v>
+        <v>93789</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>63022</v>
+        <v>62811</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82652</v>
+        <v>83067</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>80147</v>
+        <v>81735</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>134289</v>
+        <v>132250</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34617</v>
+        <v>33951</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38406</v>
+        <v>38719</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39803</v>
+        <v>40345</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60160</v>
+        <v>62974</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>69308</v>
+        <v>69695</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96852</v>
+        <v>97963</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>91408</v>
+        <v>90687</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>132031</v>
+        <v>129948</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>96335</v>
+        <v>94840</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>123239</v>
+        <v>125600</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>120985</v>
+        <v>121035</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>180121</v>
+        <v>180303</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23519</v>
+        <v>23520</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32502</v>
+        <v>31961</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30258</v>
+        <v>30974</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54138</v>
+        <v>53357</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>67481</v>
+        <v>65171</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>99462</v>
+        <v>100515</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>96502</v>
+        <v>95250</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>124075</v>
+        <v>122869</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>95241</v>
+        <v>96464</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>141127</v>
+        <v>139433</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>133143</v>
+        <v>132949</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>184916</v>
+        <v>186626</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47965</v>
+        <v>45266</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59848</v>
+        <v>59645</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55605</v>
+        <v>58075</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>86189</v>
+        <v>85105</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>100968</v>
+        <v>100883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142087</v>
+        <v>142016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>140185</v>
+        <v>137930</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>160869</v>
+        <v>163777</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>137399</v>
+        <v>136347</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>192195</v>
+        <v>190246</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>186033</v>
+        <v>184347</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>234853</v>
+        <v>237431</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>119879</v>
+        <v>119740</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>92862</v>
+        <v>90693</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>186348</v>
+        <v>186677</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>369157</v>
+        <v>366961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>327389</v>
+        <v>327368</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>422924</v>
+        <v>421601</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>503280</v>
+        <v>503099</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>429308</v>
+        <v>427540</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>627111</v>
+        <v>624164</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>170209</v>
+        <v>171737</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>132371</v>
+        <v>132579</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>245351</v>
+        <v>246530</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>446857</v>
+        <v>444689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>401245</v>
+        <v>405250</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>489714</v>
+        <v>493596</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>593918</v>
+        <v>595718</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>515892</v>
+        <v>516440</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>718365</v>
+        <v>715717</v>
       </c>
     </row>
     <row r="24">
